--- a/network_inventory_2.xlsx
+++ b/network_inventory_2.xlsx
@@ -44,13 +44,13 @@
     <t>172.16.10.225</t>
   </si>
   <si>
-    <t>{'name': 'HP P2000 G3 NAS device', 'accuracy': '93', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 3.16', 'accuracy': '92', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55769', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Ubiquiti AirMax NanoStation WAP (Linux 2.6.32)', 'accuracy': '92', 'line': '61697', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}, {'type': 'WAP', 'vendor': 'Ubiquiti', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '92', 'cpe': ['cpe:/h:ubnt:airmax_nanostation']}]} {'name': 'Linux 3.10', 'accuracy': '92', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '92', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.7', 'accuracy': '92', 'line': '65885', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.7']}]} {'name': 'Linux 5.4', 'accuracy': '92', 'line': '68176', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.4']}]} {'name': 'Linux 2.6.32 - 3.13', 'accuracy': '92', 'line': '56601', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.0 - 3.2', 'accuracy': '92', 'line': '62665', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Linux 3.16', 'accuracy': '90', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '89', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '89', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '89', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Crestron XPanel control system', 'accuracy': '88', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '88', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '88', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '88', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '88', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'OpenWrt Kamikaze 7.09 (Linux 2.6.22)', 'accuracy': '87', 'line': '61524', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.22']}]} {'name': 'Linux 2.6.32', 'accuracy': '87', 'line': '55268', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Infomir MAG-250 set-top box', 'accuracy': '87', 'line': '59627', 'osclass': [{'type': 'media device', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'media device', 'vendor': 'Infomir', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:infomir:mag-250']}]} {'name': 'Linux 3.10', 'accuracy': '87', 'line': '63029', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Linux 3.10', 'accuracy': '90', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '90', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '90', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '90', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Crestron XPanel control system', 'accuracy': '89', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '89', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'Linux 3.16', 'accuracy': '89', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '89', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '89', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '89', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'OpenWrt Kamikaze 7.09 (Linux 2.6.22)', 'accuracy': '88', 'line': '61524', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.22']}]} {'name': 'Linux 2.6.32', 'accuracy': '88', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '88', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
+    <t>{'name': 'HP P2000 G3 NAS device', 'accuracy': '93', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 3.16', 'accuracy': '92', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '92', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.10', 'accuracy': '92', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '92', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '92', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '92', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Linux 5.0', 'accuracy': '92', 'line': '68042', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.0']}]} {'name': 'Linux 5.1', 'accuracy': '92', 'line': '68121', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.1']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'HP P2000 G3 NAS device', 'accuracy': '91', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '91', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 3.16', 'accuracy': '90', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '90', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '90', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.10', 'accuracy': '90', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '90', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '90', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '90', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Linux 5.0', 'accuracy': '90', 'line': '68042', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:5.0']}]} {'name': 'Linux 5.1', 'accuracy': '90', 'line': '68121', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:5.1']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'HP P2000 G3 NAS device', 'accuracy': '91', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '91', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 3.16', 'accuracy': '90', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '90', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '90', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Ubiquiti AirMax NanoStation WAP (Linux 2.6.32)', 'accuracy': '90', 'line': '61697', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}, {'type': 'WAP', 'vendor': 'Ubiquiti', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/h:ubnt:airmax_nanostation']}]} {'name': 'Linux 3.10', 'accuracy': '90', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '90', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '90', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.7', 'accuracy': '90', 'line': '65885', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.7']}]} {'name': 'Linux 2.6.32 - 3.13', 'accuracy': '89', 'line': '56601', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '89', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '89', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
   </si>
   <si>
     <t>53</t>
@@ -113,40 +113,40 @@
     <t>172.16.1.188</t>
   </si>
   <si>
-    <t>{'name': 'Linux 3.16', 'accuracy': '93', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '92', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '91', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '91', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 3.10', 'accuracy': '91', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '91', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.2', 'accuracy': '91', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '91', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '91', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'OpenWrt Kamikaze 7.09 (Linux 2.6.22)', 'accuracy': '91', 'line': '61524', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.22']}]} {'name': 'Linux 5.4', 'accuracy': '90', 'line': '68176', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:5.4']}]} {'name': 'Linux 2.6.32 - 3.13', 'accuracy': '90', 'line': '56601', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '87', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '87', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'Microsoft Windows Server 2008 SP1 or Windows Server 2008 R2', 'accuracy': '85', 'line': '75297', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008::sp1', 'cpe:/o:microsoft:windows_server_2008:r2']}]} {'name': 'Microsoft Windows 7', 'accuracy': '85', 'line': '76405', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '7', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_7']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Crestron XPanel control system', 'accuracy': '90', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '87', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.1', 'accuracy': '87', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.16', 'accuracy': '87', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '87', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '87', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'Linux 2.6.32', 'accuracy': '86', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '86', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '86', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
+    <t>{'name': 'HP P2000 G3 NAS device', 'accuracy': '93', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '92', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.10', 'accuracy': '92', 'line': '63029', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '92', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '92', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '92', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Linux 5.0', 'accuracy': '92', 'line': '68042', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.0']}]} {'name': 'Linux 5.0 - 5.4', 'accuracy': '92', 'line': '68103', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5']}]} {'name': 'Linux 5.1', 'accuracy': '92', 'line': '68121', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.1']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '87', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '87', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'Microsoft Windows Server 2008 SP1 or Windows Server 2008 R2', 'accuracy': '85', 'line': '75297', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008::sp1', 'cpe:/o:microsoft:windows_server_2008:r2']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Crestron XPanel control system', 'accuracy': '90', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '87', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.1', 'accuracy': '87', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.16', 'accuracy': '87', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '87', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '87', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'Sony X75CH-series Android TV (Android 5.0)', 'accuracy': '86', 'line': '31489', 'osclass': [{'type': 'media device', 'vendor': 'Google', 'osfamily': 'Android', 'osgen': '5.X', 'accuracy': '86', 'cpe': ['cpe:/o:google:android:5.0', 'cpe:/h:sony:x75ch']}]} {'name': 'Linux 2.6.32', 'accuracy': '86', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 3.10', 'accuracy': '86', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]}</t>
   </si>
   <si>
     <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '91', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '91', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]} {'name': 'Microsoft Windows XP SP2', 'accuracy': '85', 'line': '81595', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_xp::sp2']}]}</t>
   </si>
   <si>
-    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '91', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '91', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Linux 3.1', 'accuracy': '95', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.2', 'accuracy': '95', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '94', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '94', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '94', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '93', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.16', 'accuracy': '93', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Adtran 424RG FTTH gateway', 'accuracy': '92', 'line': '1576', 'osclass': [{'type': 'specialized', 'vendor': 'Adtran', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '92', 'cpe': ['cpe:/h:adtran:424rg']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '92', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '92', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2 - 4.9', 'accuracy': '92', 'line': '65314', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]}</t>
+    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '92', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '92', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]} {'name': 'FreeBSD 6.2-RELEASE', 'accuracy': '86', 'line': '27735', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '6.X', 'accuracy': '86', 'cpe': ['cpe:/o:freebsd:freebsd:6.2']}]} {'name': 'Microsoft Windows XP SP2', 'accuracy': '85', 'line': '81595', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_xp::sp2']}]} {'name': 'FreeBSD 10.3-STABLE', 'accuracy': '85', 'line': '26095', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '10.X', 'accuracy': '85', 'cpe': ['cpe:/o:freebsd:freebsd:10.3']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Linux 3.1', 'accuracy': '95', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.2', 'accuracy': '95', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '94', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '94', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '94', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '93', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.16', 'accuracy': '93', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '92', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '92', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2 - 4.9', 'accuracy': '92', 'line': '65314', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.7 - 3.10', 'accuracy': '92', 'line': '65945', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Microsoft Windows Server 2016', 'accuracy': '91', 'line': '76195', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2016', 'accuracy': '91', 'cpe': ['cpe:/o:microsoft:windows_server_2016']}]} {'name': 'Microsoft Windows Server 2012 or Windows Server 2012 R2', 'accuracy': '85', 'line': '75672', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2012 R2', 'accuracy': '85', 'line': '75710', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2008 R2', 'accuracy': '85', 'line': '74585', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008:r2']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Linux 3.1', 'accuracy': '95', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.2', 'accuracy': '95', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '94', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '94', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '94', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '93', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.16', 'accuracy': '93', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '92', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '92', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.11', 'accuracy': '92', 'line': '63487', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.11']}]} {'name': 'Linux 3.2 - 4.9', 'accuracy': '92', 'line': '65314', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Crestron XPanel control system', 'accuracy': '90', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '87', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.1', 'accuracy': '87', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.16', 'accuracy': '87', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '87', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '87', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'Adtran 424RG FTTH gateway', 'accuracy': '86', 'line': '1576', 'osclass': [{'type': 'specialized', 'vendor': 'Adtran', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '86', 'cpe': ['cpe:/h:adtran:424rg']}]} {'name': 'Linux 2.6.32', 'accuracy': '86', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '86', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
   </si>
   <si>
     <t>{'name': 'Microsoft Windows Server 2016', 'accuracy': '91', 'line': '76195', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2016', 'accuracy': '91', 'cpe': ['cpe:/o:microsoft:windows_server_2016']}]} {'name': 'Microsoft Windows Server 2012', 'accuracy': '85', 'line': '75539', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012']}]} {'name': 'Microsoft Windows Server 2012 or Windows Server 2012 R2', 'accuracy': '85', 'line': '75672', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2012 R2', 'accuracy': '85', 'line': '75710', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2008 R2', 'accuracy': '85', 'line': '74585', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008:r2']}]} {'name': 'Microsoft Windows 10 1607', 'accuracy': '85', 'line': '69694', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '10', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_10:1607']}]}</t>
   </si>
   <si>
-    <t>{'name': 'Linux 3.1', 'accuracy': '95', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.2', 'accuracy': '95', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '94', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '94', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '94', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '93', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.16', 'accuracy': '93', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '92', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '92', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2 - 4.9', 'accuracy': '92', 'line': '65314', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.7 - 3.10', 'accuracy': '92', 'line': '65945', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Crestron XPanel control system', 'accuracy': '90', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '87', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.1', 'accuracy': '87', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.16', 'accuracy': '87', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '87', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '87', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'Linux 2.6.32', 'accuracy': '86', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '86', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Infomir MAG-250 set-top box', 'accuracy': '86', 'line': '59627', 'osclass': [{'type': 'media device', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'media device', 'vendor': 'Infomir', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '86', 'cpe': ['cpe:/h:infomir:mag-250']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Microsoft Windows Server 2016', 'accuracy': '91', 'line': '76195', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2016', 'accuracy': '91', 'cpe': ['cpe:/o:microsoft:windows_server_2016']}]} {'name': 'Microsoft Windows Server 2012 or Windows Server 2012 R2', 'accuracy': '85', 'line': '75672', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2012 R2', 'accuracy': '85', 'line': '75710', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2008 R2', 'accuracy': '85', 'line': '74585', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008:r2']}]} {'name': 'Microsoft Windows 10 1607', 'accuracy': '85', 'line': '69694', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '10', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_10:1607']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]} {'name': 'Microsoft Windows XP SP3', 'accuracy': '86', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '86', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'FreeBSD 6.2-RELEASE', 'accuracy': '85', 'line': '27735', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '6.X', 'accuracy': '85', 'cpe': ['cpe:/o:freebsd:freebsd:6.2']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '92', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '92', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]} {'name': 'FreeBSD 6.2-RELEASE', 'accuracy': '86', 'line': '27735', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '6.X', 'accuracy': '86', 'cpe': ['cpe:/o:freebsd:freebsd:6.2']}]} {'name': 'Microsoft Windows XP SP2', 'accuracy': '85', 'line': '81595', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_xp::sp2']}]} {'name': 'FreeBSD 10.3-STABLE', 'accuracy': '85', 'line': '26095', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '10.X', 'accuracy': '85', 'cpe': ['cpe:/o:freebsd:freebsd:10.3']}]}</t>
+    <t>{'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]}</t>
+  </si>
+  <si>
+    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '92', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '92', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'FreeBSD 6.2-RELEASE', 'accuracy': '86', 'line': '27735', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '6.X', 'accuracy': '86', 'cpe': ['cpe:/o:freebsd:freebsd:6.2']}]} {'name': 'Microsoft Windows XP SP2', 'accuracy': '85', 'line': '81595', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_xp::sp2']}]}</t>
   </si>
   <si>
     <t>135, 139, 445, 3389, 5357</t>
